--- a/branches/final-changes-2022/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/final-changes-2022/StructureDefinition-covid19-lab-order.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T11:06:48+00:00</t>
+    <t>2022-11-22T13:23:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/final-changes-2022/StructureDefinition-covid19-lab-order.xlsx
+++ b/branches/final-changes-2022/StructureDefinition-covid19-lab-order.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="428">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T13:23:01+00:00</t>
+    <t>2022-11-23T06:26:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -786,7 +786,10 @@
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-test-types</t>
+    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](valueset-diagnostic-requests.html).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1700,7 +1703,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="255.0" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="104.18359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -4183,11 +4186,13 @@
         <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>79</v>
@@ -4220,28 +4225,28 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4263,13 +4268,13 @@
         <v>214</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4298,10 +4303,10 @@
         <v>219</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>79</v>
@@ -4319,7 +4324,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4328,7 +4333,7 @@
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>98</v>
@@ -4337,21 +4342,21 @@
         <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4374,17 +4379,17 @@
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4433,7 +4438,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4451,10 +4456,10 @@
         <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4465,7 +4470,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4488,13 +4493,13 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4545,7 +4550,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>86</v>
@@ -4560,28 +4565,28 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4600,13 +4605,13 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4657,7 +4662,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4672,28 +4677,28 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4712,13 +4717,13 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4757,17 +4762,17 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4782,30 +4787,30 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4824,13 +4829,13 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4881,7 +4886,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4896,24 +4901,24 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4936,13 +4941,13 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4972,10 +4977,10 @@
         <v>219</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -4993,7 +4998,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5014,22 +5019,22 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5048,13 +5053,13 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5105,7 +5110,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5120,28 +5125,28 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5160,16 +5165,16 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5219,7 +5224,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5234,28 +5239,28 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5277,13 +5282,13 @@
         <v>214</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5312,10 +5317,10 @@
         <v>219</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5333,7 +5338,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5348,16 +5353,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5365,11 +5370,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5388,16 +5393,16 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5447,7 +5452,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5462,16 +5467,16 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5479,7 +5484,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5505,10 +5510,10 @@
         <v>214</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5538,10 +5543,10 @@
         <v>219</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>79</v>
@@ -5559,7 +5564,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5580,10 +5585,10 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5591,7 +5596,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5614,13 +5619,13 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5671,7 +5676,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5692,10 +5697,10 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -5703,7 +5708,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5729,13 +5734,13 @@
         <v>214</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5765,7 +5770,7 @@
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -5783,7 +5788,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5798,16 +5803,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -5815,7 +5820,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5838,16 +5843,16 @@
         <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5897,7 +5902,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5912,16 +5917,16 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -5929,7 +5934,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5952,13 +5957,13 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6009,7 +6014,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6024,13 +6029,13 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6041,11 +6046,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6064,16 +6069,16 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6123,7 +6128,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6138,13 +6143,13 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6155,7 +6160,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6178,16 +6183,16 @@
         <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6237,7 +6242,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6255,10 +6260,10 @@
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6269,11 +6274,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6295,16 +6300,16 @@
         <v>214</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6332,10 +6337,10 @@
         <v>219</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6353,7 +6358,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6371,21 +6376,21 @@
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6408,13 +6413,13 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>48</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6465,7 +6470,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6480,24 +6485,24 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6520,13 +6525,13 @@
         <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6577,7 +6582,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6595,10 +6600,10 @@
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -6609,7 +6614,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6632,16 +6637,16 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6691,7 +6696,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6706,13 +6711,13 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
